--- a/DAILY ROASTER NEW.xlsx
+++ b/DAILY ROASTER NEW.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -114,13 +114,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>SHEHAN SENARATHNE</t>
+  </si>
+  <si>
     <t>OFF</t>
-  </si>
-  <si>
-    <t>EVENING</t>
-  </si>
-  <si>
-    <t>2025.07.20</t>
   </si>
 </sst>
 </file>
@@ -250,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -288,6 +285,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,8 +617,9 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
+      <c r="E4" s="2" t="str">
+        <f ca="1">TEXT(TODAY() + 1, "yyyy.mm.dd")</f>
+        <v>2025.08.07</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -635,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -703,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -720,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -737,7 +738,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -754,7 +755,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -788,7 +789,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -805,19 +806,24 @@
         <v>23</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="3">
-        <f>COUNTIF(E5:E15, "MORNING")++COUNTIF(E5:E15,"FULL DAY")</f>
-        <v>7</v>
+      <c r="B16" s="9">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -825,20 +831,32 @@
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="15">
+        <f>COUNTIF(E5:E16, "MORNING")++COUNTIF(E5:E16,"FULL DAY")</f>
+        <v>11</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <f>COUNTIF(E5:E15,"EVENING")+COUNTIF(E5:E15,"FULL DAY")</f>
-        <v>7</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
